--- a/chassis/Nucleo_DCO_Panel_Design.xlsx
+++ b/chassis/Nucleo_DCO_Panel_Design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Documents\Develop\Nucleo_DCO\chassis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/chassis/Nucleo_DCO_Panel_Design.xlsx
+++ b/chassis/Nucleo_DCO_Panel_Design.xlsx
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>2018.09.13</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>OSC1 PW</t>
     <phoneticPr fontId="1"/>
@@ -71,6 +67,86 @@
   </si>
   <si>
     <t>Nucleo_DCO_Panel_Design</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 Range</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 Range</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 Range</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 Shape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 Shape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 Shape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 PW Valid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 PW Valid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 PW Valid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level Clip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Power LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.09.18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Display</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Displya</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Off SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mode SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reserved</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -156,13 +232,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -214,13 +290,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -272,13 +348,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -330,13 +406,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -388,13 +464,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -446,13 +522,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -503,13 +579,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -561,13 +637,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -619,13 +695,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -677,13 +753,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -725,6 +801,996 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>10k/A</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Oval 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="685800"/>
+          <a:ext cx="857250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Rot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> Enc</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10k/B</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Oval 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10k/B</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Oval 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="685800"/>
+          <a:ext cx="857250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Rot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Enc</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Oval 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257550" y="685800"/>
+          <a:ext cx="857250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Rot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Enc</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Oval 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="3076575"/>
+          <a:ext cx="857250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Rot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> Enc</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Oval 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="3076575"/>
+          <a:ext cx="857250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Rot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Enc</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Oval 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="3076575"/>
+          <a:ext cx="857250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Rot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Enc</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504824" y="4286250"/>
+          <a:ext cx="352425" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Oval 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="4286250"/>
+          <a:ext cx="342900" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Oval 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248024" y="4286250"/>
+          <a:ext cx="352425" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Oval 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4600575" y="5486400"/>
+          <a:ext cx="352425" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Oval 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4962525" y="704850"/>
+          <a:ext cx="352425" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="3086100"/>
+          <a:ext cx="1200150" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OLED</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Oval 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="4114800"/>
+          <a:ext cx="352425" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Oval 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="4124325"/>
+          <a:ext cx="352425" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Oval 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="4953000"/>
+          <a:ext cx="352425" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -997,58 +2063,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB24"/>
+  <dimension ref="B2:AG41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:AJ43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AD7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+    <row r="17" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="L17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" t="s">
+        <v>15</v>
+      </c>
+      <c r="T24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" t="s">
+        <v>20</v>
+      </c>
+      <c r="V27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" t="s">
+        <v>18</v>
+      </c>
+      <c r="T28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="AG32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="AG33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
         <v>0</v>
       </c>
+      <c r="L34" t="s">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="L10" t="s">
-        <v>10</v>
-      </c>
-      <c r="T10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>8</v>
+    <row r="35" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="AB35" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="17" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>2</v>
-      </c>
-      <c r="T17" t="s">
+    <row r="41" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D24" t="s">
+      <c r="L41" t="s">
         <v>4</v>
       </c>
-      <c r="L24" t="s">
+      <c r="T41" t="s">
         <v>5</v>
       </c>
-      <c r="T24" t="s">
+      <c r="AB41" t="s">
         <v>6</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/chassis/Nucleo_DCO_Panel_Design.xlsx
+++ b/chassis/Nucleo_DCO_Panel_Design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>OSC1 PW</t>
     <phoneticPr fontId="1"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.09.18</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Display</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -147,6 +143,18 @@
   </si>
   <si>
     <t>SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC Off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.09.25</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1472,15 +1480,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>164855</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>6594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>5860</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1489,8 +1497,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4600575" y="5486400"/>
-          <a:ext cx="352425" cy="333375"/>
+          <a:off x="4546355" y="5399209"/>
+          <a:ext cx="346563" cy="330445"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1745,25 +1753,79 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Oval 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="4819650"/>
+          <a:ext cx="352425" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Oval 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="4953000"/>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Oval 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="4819650"/>
           <a:ext cx="352425" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2065,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AJ43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:AJ42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2078,7 +2140,7 @@
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.15">
@@ -2130,10 +2192,10 @@
         <v>20</v>
       </c>
       <c r="AB27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG27" t="s">
         <v>25</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="28" spans="4:33" x14ac:dyDescent="0.15">
@@ -2147,23 +2209,29 @@
         <v>19</v>
       </c>
       <c r="AB28" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="AB31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG31" t="s">
         <v>28</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="32" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="AB32" t="s">
+        <v>31</v>
+      </c>
       <c r="AG32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="4:33" x14ac:dyDescent="0.15">
-      <c r="AG33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="4:33" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
         <v>0</v>
       </c>
@@ -2177,12 +2245,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="4:33" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:30" x14ac:dyDescent="0.15">
       <c r="AB35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="4:33" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:30" x14ac:dyDescent="0.15">
       <c r="D41" t="s">
         <v>3</v>
       </c>

--- a/chassis/Nucleo_DCO_Panel_Design.xlsx
+++ b/chassis/Nucleo_DCO_Panel_Design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>OSC1 PW</t>
     <phoneticPr fontId="1"/>
@@ -154,7 +154,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.09.25</t>
+    <t>2018.11.21</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1479,16 +1479,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>164855</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>6594</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>5860</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>16119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>12455</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1497,8 +1497,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4546355" y="5399209"/>
-          <a:ext cx="346563" cy="330445"/>
+          <a:off x="5657850" y="6188319"/>
+          <a:ext cx="355355" cy="336306"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1533,16 +1533,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1551,7 +1551,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4962525" y="704850"/>
+          <a:off x="5657850" y="2066925"/>
           <a:ext cx="352425" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1853,6 +1853,64 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Oval 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="1885950"/>
+          <a:ext cx="857250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10k/B</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2125,30 +2183,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG41"/>
+  <dimension ref="B2:AH41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AJ42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AL43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="AD7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:34" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -2159,7 +2212,15 @@
         <v>13</v>
       </c>
     </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="AH15" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="17" spans="4:33" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
       <c r="L17" t="s">
         <v>9</v>
       </c>
@@ -2231,7 +2292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="4:30" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:34" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
         <v>0</v>
       </c>
@@ -2241,16 +2302,18 @@
       <c r="T34" t="s">
         <v>2</v>
       </c>
-      <c r="AD34" t="s">
+    </row>
+    <row r="39" spans="4:34" x14ac:dyDescent="0.15">
+      <c r="AH39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="4:30" x14ac:dyDescent="0.15">
-      <c r="AB35" t="s">
+    <row r="40" spans="4:34" x14ac:dyDescent="0.15">
+      <c r="AH40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="4:30" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:34" x14ac:dyDescent="0.15">
       <c r="D41" t="s">
         <v>3</v>
       </c>

--- a/chassis/Nucleo_DCO_Panel_Design.xlsx
+++ b/chassis/Nucleo_DCO_Panel_Design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>OSC1 PW</t>
     <phoneticPr fontId="1"/>
@@ -50,111 +50,115 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Frequency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Detune</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Detune</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nucleo_DCO_Panel_Design</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 Range</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 Range</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 Range</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 Shape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 Shape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 Shape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 PW Valid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 PW Valid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 PW Valid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level Clip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Power LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Display</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Displya</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Off SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mode SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reserved</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC Off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.11.21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Master Level</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Frequency</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Detune</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Detune</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nucleo_DCO_Panel_Design</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC1 Range</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC2 Range</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC2 Range</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC1 Shape</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC2 Shape</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC3 Shape</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC1 PW Valid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC2 PW Valid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC3 PW Valid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Level Clip</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Power LED</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Display</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Displya</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Off SW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mode SW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reserved</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADC Off</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018.11.21</t>
+    <t>Digital Level</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1533,16 +1537,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1551,7 +1555,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5657850" y="2066925"/>
+          <a:off x="5648325" y="971550"/>
           <a:ext cx="352425" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1912,6 +1916,63 @@
             <a:t>10k/B</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Oval 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="685800"/>
+          <a:ext cx="857250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10k/A</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2193,103 +2254,106 @@
   <sheetData>
     <row r="2" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="AH9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
         <v>11</v>
       </c>
-      <c r="L10" t="s">
+      <c r="T10" t="s">
         <v>12</v>
       </c>
-      <c r="T10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="AH15" t="s">
-        <v>23</v>
+      <c r="AB10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="4:33" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" t="s">
         <v>8</v>
       </c>
-      <c r="L17" t="s">
-        <v>9</v>
-      </c>
       <c r="T17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="4:33" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" t="s">
         <v>14</v>
       </c>
-      <c r="L24" t="s">
+      <c r="T24" t="s">
         <v>15</v>
-      </c>
-      <c r="T24" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="27" spans="4:33" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG27" t="s">
         <v>24</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="28" spans="4:33" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" t="s">
         <v>17</v>
       </c>
-      <c r="L28" t="s">
+      <c r="T28" t="s">
         <v>18</v>
       </c>
-      <c r="T28" t="s">
-        <v>19</v>
-      </c>
       <c r="AB28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="4:33" x14ac:dyDescent="0.15">
       <c r="AB31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="4:33" x14ac:dyDescent="0.15">
       <c r="AB32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="4:34" x14ac:dyDescent="0.15">
@@ -2305,12 +2369,12 @@
     </row>
     <row r="39" spans="4:34" x14ac:dyDescent="0.15">
       <c r="AH39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="4:34" x14ac:dyDescent="0.15">
       <c r="AH40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="4:34" x14ac:dyDescent="0.15">
@@ -2324,7 +2388,7 @@
         <v>5</v>
       </c>
       <c r="AB41" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/chassis/Nucleo_DCO_Panel_Design.xlsx
+++ b/chassis/Nucleo_DCO_Panel_Design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>OSC1 PW</t>
     <phoneticPr fontId="1"/>
@@ -54,14 +54,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Detune</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Detune</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Nucleo_DCO_Panel_Design</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -74,10 +66,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OSC2 Range</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OSC1 Shape</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -159,6 +147,22 @@
   </si>
   <si>
     <t>Digital Level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 Range</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 Detune</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 Detune</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 Detune</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2254,42 +2258,42 @@
   <sheetData>
     <row r="2" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.15">
       <c r="AH9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T10" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="AB10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="4:33" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="L17" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="T17" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AB17" t="s">
         <v>6</v>
@@ -2297,63 +2301,63 @@
     </row>
     <row r="24" spans="4:33" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="4:33" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AB27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="4:33" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AB28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="4:33" x14ac:dyDescent="0.15">
       <c r="AB31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="4:33" x14ac:dyDescent="0.15">
       <c r="AB32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="4:34" x14ac:dyDescent="0.15">
@@ -2369,12 +2373,12 @@
     </row>
     <row r="39" spans="4:34" x14ac:dyDescent="0.15">
       <c r="AH39" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="4:34" x14ac:dyDescent="0.15">
       <c r="AH40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="4:34" x14ac:dyDescent="0.15">
@@ -2388,7 +2392,7 @@
         <v>5</v>
       </c>
       <c r="AB41" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/chassis/Nucleo_DCO_Panel_Design.xlsx
+++ b/chassis/Nucleo_DCO_Panel_Design.xlsx
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.11.21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Master Level</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -163,6 +159,10 @@
   </si>
   <si>
     <t>OSC3 Detune</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.11.24</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -196,20 +196,95 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -218,11 +293,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2248,7 +2356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AH41"/>
+  <dimension ref="B2:AI41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:AL43"/>
@@ -2263,10 +2371,18 @@
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="I8" s="5"/>
+      <c r="Q8" s="4"/>
+      <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="I9" s="3"/>
+      <c r="Q9" s="7"/>
+      <c r="Y9" s="2"/>
       <c r="AH9" t="s">
         <v>19</v>
       </c>
@@ -2279,27 +2395,43 @@
         <v>9</v>
       </c>
       <c r="T10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="I16" s="2"/>
+      <c r="Q16" s="5"/>
+      <c r="Y16" s="3"/>
+      <c r="AG16" s="4"/>
+    </row>
+    <row r="17" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="AB10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="4:33" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
+      <c r="L17" t="s">
         <v>32</v>
       </c>
-      <c r="L17" t="s">
+      <c r="T17" t="s">
         <v>33</v>
-      </c>
-      <c r="T17" t="s">
-        <v>34</v>
       </c>
       <c r="AB17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="4:33" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="I22" s="9"/>
+      <c r="Q22" s="12"/>
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="I23" s="10"/>
+      <c r="Q23" s="5"/>
+      <c r="Y23" s="4"/>
+    </row>
+    <row r="24" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>10</v>
       </c>
@@ -2310,7 +2442,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="4:33" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="AD26" s="4"/>
+      <c r="AI26" s="3"/>
+    </row>
+    <row r="27" spans="4:35" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
         <v>16</v>
       </c>
@@ -2327,7 +2463,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="4:33" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
         <v>13</v>
       </c>
@@ -2344,7 +2480,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="4:33" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="AD30" s="7"/>
+      <c r="AI30" s="8"/>
+    </row>
+    <row r="31" spans="4:35" x14ac:dyDescent="0.15">
       <c r="AB31" t="s">
         <v>26</v>
       </c>
@@ -2352,13 +2492,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="4:33" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:35" x14ac:dyDescent="0.15">
       <c r="AB32" t="s">
         <v>27</v>
       </c>
       <c r="AG32" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="33" spans="4:34" x14ac:dyDescent="0.15">
+      <c r="I33" s="7"/>
+      <c r="Q33" s="8"/>
+      <c r="Y33" s="2"/>
     </row>
     <row r="34" spans="4:34" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
@@ -2377,6 +2522,10 @@
       </c>
     </row>
     <row r="40" spans="4:34" x14ac:dyDescent="0.15">
+      <c r="I40" s="9"/>
+      <c r="Q40" s="10"/>
+      <c r="Y40" s="11"/>
+      <c r="AG40" s="6"/>
       <c r="AH40" t="s">
         <v>17</v>
       </c>
@@ -2392,7 +2541,7 @@
         <v>5</v>
       </c>
       <c r="AB41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/chassis/Nucleo_DCO_Panel_Design.xlsx
+++ b/chassis/Nucleo_DCO_Panel_Design.xlsx
@@ -2402,10 +2402,10 @@
       </c>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="I16" s="2"/>
-      <c r="Q16" s="5"/>
-      <c r="Y16" s="3"/>
-      <c r="AG16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="Q16" s="3"/>
+      <c r="Y16" s="4"/>
+      <c r="AG16" s="2"/>
     </row>
     <row r="17" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D17" t="s">

--- a/chassis/Nucleo_DCO_Panel_Design.xlsx
+++ b/chassis/Nucleo_DCO_Panel_Design.xlsx
@@ -58,111 +58,111 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>OSC1 Shape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 PW Valid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 PW Valid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 PW Valid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Level Clip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Power LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Display</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Displya</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Off SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mode SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reserved</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADC Off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Master Level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Digital Level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 Range</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC1 Detune</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 Detune</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 Detune</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.11.27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC2 Shape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSC3 Shape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>OSC1 Range</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>OSC2 Range</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC1 Shape</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC2 Shape</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC3 Shape</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC1 PW Valid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC2 PW Valid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC3 PW Valid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Level Clip</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Power LED</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Display</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Displya</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Off SW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Mode SW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reserved</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADC Off</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Master Level</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Digital Level</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC3 Range</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC1 Detune</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC2 Detune</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OSC3 Detune</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018.11.24</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2359,7 +2359,7 @@
   <dimension ref="B2:AI41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AL43"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.15">
@@ -2384,7 +2384,7 @@
       <c r="Q9" s="7"/>
       <c r="Y9" s="2"/>
       <c r="AH9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.15">
@@ -2392,13 +2392,13 @@
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="T10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.15">
@@ -2409,13 +2409,13 @@
     </row>
     <row r="17" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AB17" t="s">
         <v>6</v>
@@ -2433,13 +2433,13 @@
     </row>
     <row r="24" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="T24" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="4:35" x14ac:dyDescent="0.15">
@@ -2448,36 +2448,36 @@
     </row>
     <row r="27" spans="4:35" x14ac:dyDescent="0.15">
       <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="V27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB27" t="s">
         <v>16</v>
       </c>
-      <c r="N27" t="s">
-        <v>16</v>
-      </c>
-      <c r="V27" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>20</v>
-      </c>
       <c r="AG27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="4:35" x14ac:dyDescent="0.15">
@@ -2486,18 +2486,18 @@
     </row>
     <row r="31" spans="4:35" x14ac:dyDescent="0.15">
       <c r="AB31" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AG31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="4:35" x14ac:dyDescent="0.15">
       <c r="AB32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AG32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="4:34" x14ac:dyDescent="0.15">
@@ -2518,7 +2518,7 @@
     </row>
     <row r="39" spans="4:34" x14ac:dyDescent="0.15">
       <c r="AH39" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="4:34" x14ac:dyDescent="0.15">
@@ -2527,7 +2527,7 @@
       <c r="Y40" s="11"/>
       <c r="AG40" s="6"/>
       <c r="AH40" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="4:34" x14ac:dyDescent="0.15">
@@ -2541,7 +2541,7 @@
         <v>5</v>
       </c>
       <c r="AB41" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
